--- a/tsmr_TWB2.xlsx
+++ b/tsmr_TWB2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A054DDC-57B3-D44F-B0A8-750430E10A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6467C05-AEA4-0447-9420-22AAA5E3A507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="740" windowWidth="19840" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="900" windowWidth="14020" windowHeight="18060" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="two_sample_MR" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,20 @@
     <sheet name="two_saige_exp_IBS_out_憂鬱 (40)" sheetId="32" r:id="rId32"/>
     <sheet name="two_saige_exp_IBS_out_乾眼 (10)" sheetId="33" r:id="rId33"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2312,7 +2325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2431,19 +2444,22 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2470,6 +2486,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2488,25 +2513,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2669,7 +2685,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>2599245</xdr:colOff>
+      <xdr:colOff>1248426</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>36967</xdr:rowOff>
     </xdr:to>
@@ -5707,8 +5723,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AA145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="H137" sqref="H137:O145"/>
+    <sheetView topLeftCell="A114" zoomScale="125" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -5725,16 +5741,16 @@
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="65"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
@@ -5761,25 +5777,25 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="50" t="s">
         <v>590</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="54" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="7" t="s">
@@ -5808,13 +5824,13 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="61"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="44"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="12" t="s">
         <v>14</v>
       </c>
@@ -5841,13 +5857,13 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="61"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="44"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="12" t="s">
         <v>15</v>
       </c>
@@ -5874,13 +5890,13 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="61"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="44"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="55"/>
       <c r="H5" s="12" t="s">
         <v>16</v>
       </c>
@@ -5907,13 +5923,13 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="61"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="44"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="55"/>
       <c r="H6" s="16" t="s">
         <v>17</v>
       </c>
@@ -5923,7 +5939,7 @@
       <c r="J6" s="14">
         <v>2.7715137447416002E-6</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="66">
         <v>7.7456260389439494E-2</v>
       </c>
       <c r="L6" s="6">
@@ -5940,13 +5956,13 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="61"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="44"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="55"/>
       <c r="H7" s="12" t="s">
         <v>18</v>
       </c>
@@ -5973,13 +5989,13 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="61"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="44"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="55"/>
       <c r="H8" s="12" t="s">
         <v>19</v>
       </c>
@@ -6006,13 +6022,13 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="61"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="44"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="55"/>
       <c r="H9" s="12" t="s">
         <v>20</v>
       </c>
@@ -6039,13 +6055,13 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="17" thickBot="1">
-      <c r="A10" s="61"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="44"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="55"/>
       <c r="H10" s="17" t="s">
         <v>21</v>
       </c>
@@ -6072,23 +6088,23 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="61"/>
-      <c r="B11" s="45" t="s">
+      <c r="A11" s="44"/>
+      <c r="B11" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="50" t="s">
         <v>590</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="54" t="s">
         <v>22</v>
       </c>
       <c r="H11" s="7" t="s">
@@ -6117,13 +6133,13 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="61"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="44"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="55"/>
       <c r="H12" s="12" t="s">
         <v>14</v>
       </c>
@@ -6150,13 +6166,13 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="61"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="44"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="55"/>
       <c r="H13" s="12" t="s">
         <v>15</v>
       </c>
@@ -6183,13 +6199,13 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="61"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="44"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="55"/>
       <c r="H14" s="12" t="s">
         <v>16</v>
       </c>
@@ -6216,13 +6232,13 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="61"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="44"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="55"/>
       <c r="H15" s="12" t="s">
         <v>17</v>
       </c>
@@ -6249,13 +6265,13 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="61"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="44"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="55"/>
       <c r="H16" s="16" t="s">
         <v>18</v>
       </c>
@@ -6282,13 +6298,13 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="61"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="44"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="55"/>
       <c r="H17" s="12" t="s">
         <v>19</v>
       </c>
@@ -6315,13 +6331,13 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="61"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="44"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="55"/>
       <c r="H18" s="12" t="s">
         <v>20</v>
       </c>
@@ -6348,13 +6364,13 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="17" thickBot="1">
-      <c r="A19" s="61"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="44"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="55"/>
       <c r="H19" s="17" t="s">
         <v>21</v>
       </c>
@@ -6381,23 +6397,23 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="61"/>
-      <c r="B20" s="45" t="s">
+      <c r="A20" s="44"/>
+      <c r="B20" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="51" t="s">
+      <c r="E20" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="51" t="s">
+      <c r="F20" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="43" t="s">
+      <c r="G20" s="54" t="s">
         <v>590</v>
       </c>
       <c r="H20" s="7" t="s">
@@ -6426,13 +6442,13 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="61"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="44"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="55"/>
       <c r="H21" s="12" t="s">
         <v>14</v>
       </c>
@@ -6459,13 +6475,13 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="61"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="44"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="55"/>
       <c r="H22" s="12" t="s">
         <v>15</v>
       </c>
@@ -6492,13 +6508,13 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="61"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="44"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="55"/>
       <c r="H23" s="12" t="s">
         <v>16</v>
       </c>
@@ -6525,13 +6541,13 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="61"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="44"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="55"/>
       <c r="H24" s="12" t="s">
         <v>17</v>
       </c>
@@ -6558,13 +6574,13 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="61"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="44"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="55"/>
       <c r="H25" s="16" t="s">
         <v>18</v>
       </c>
@@ -6591,13 +6607,13 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="61"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="44"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="55"/>
       <c r="H26" s="12" t="s">
         <v>19</v>
       </c>
@@ -6624,13 +6640,13 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="61"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="44"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="55"/>
       <c r="H27" s="12" t="s">
         <v>20</v>
       </c>
@@ -6657,13 +6673,13 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="17" thickBot="1">
-      <c r="A28" s="61"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="44"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="55"/>
       <c r="H28" s="17" t="s">
         <v>21</v>
       </c>
@@ -6690,23 +6706,23 @@
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="61"/>
-      <c r="B29" s="45" t="s">
+      <c r="A29" s="44"/>
+      <c r="B29" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="49" t="s">
+      <c r="D29" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="51" t="s">
+      <c r="E29" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="51" t="s">
+      <c r="F29" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="G29" s="43" t="s">
+      <c r="G29" s="54" t="s">
         <v>22</v>
       </c>
       <c r="H29" s="7" t="s">
@@ -6735,13 +6751,13 @@
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="61"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="44"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="55"/>
       <c r="H30" s="12" t="s">
         <v>14</v>
       </c>
@@ -6768,13 +6784,13 @@
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="61"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="44"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="55"/>
       <c r="H31" s="12" t="s">
         <v>15</v>
       </c>
@@ -6801,13 +6817,13 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="61"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="44"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="55"/>
       <c r="H32" s="12" t="s">
         <v>16</v>
       </c>
@@ -6834,13 +6850,13 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="61"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="44"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="55"/>
       <c r="H33" s="16" t="s">
         <v>17</v>
       </c>
@@ -6867,13 +6883,13 @@
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="61"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="44"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="55"/>
       <c r="H34" s="12" t="s">
         <v>18</v>
       </c>
@@ -6900,13 +6916,13 @@
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="61"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="44"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="55"/>
       <c r="H35" s="12" t="s">
         <v>19</v>
       </c>
@@ -6933,13 +6949,13 @@
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="61"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="44"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="55"/>
       <c r="H36" s="12" t="s">
         <v>20</v>
       </c>
@@ -6966,13 +6982,13 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="17" thickBot="1">
-      <c r="A37" s="61"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="44"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="55"/>
       <c r="H37" s="17" t="s">
         <v>21</v>
       </c>
@@ -6999,23 +7015,23 @@
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="61"/>
-      <c r="B38" s="45" t="s">
+      <c r="A38" s="44"/>
+      <c r="B38" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="47" t="s">
+      <c r="C38" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="49" t="s">
+      <c r="D38" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="51" t="s">
+      <c r="E38" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="51" t="s">
+      <c r="F38" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="G38" s="43" t="s">
+      <c r="G38" s="54" t="s">
         <v>590</v>
       </c>
       <c r="H38" s="7" t="s">
@@ -7044,13 +7060,13 @@
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="61"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="44"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="55"/>
       <c r="H39" s="12" t="s">
         <v>14</v>
       </c>
@@ -7077,13 +7093,13 @@
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="61"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="44"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="55"/>
       <c r="H40" s="12" t="s">
         <v>15</v>
       </c>
@@ -7110,13 +7126,13 @@
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="61"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="44"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="55"/>
       <c r="H41" s="12" t="s">
         <v>16</v>
       </c>
@@ -7143,13 +7159,13 @@
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="61"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="44"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="55"/>
       <c r="H42" s="16" t="s">
         <v>17</v>
       </c>
@@ -7176,13 +7192,13 @@
       </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="61"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="44"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="12" t="s">
         <v>18</v>
       </c>
@@ -7209,13 +7225,13 @@
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="61"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="44"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="55"/>
       <c r="H44" s="12" t="s">
         <v>19</v>
       </c>
@@ -7242,13 +7258,13 @@
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="61"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="44"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="55"/>
       <c r="H45" s="12" t="s">
         <v>20</v>
       </c>
@@ -7275,13 +7291,13 @@
       </c>
     </row>
     <row r="46" spans="1:15" ht="17" thickBot="1">
-      <c r="A46" s="61"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="44"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="55"/>
       <c r="H46" s="17" t="s">
         <v>21</v>
       </c>
@@ -7308,23 +7324,23 @@
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="61"/>
-      <c r="B47" s="45" t="s">
+      <c r="A47" s="44"/>
+      <c r="B47" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="47" t="s">
+      <c r="C47" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="D47" s="49" t="s">
+      <c r="D47" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="51" t="s">
+      <c r="E47" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="51" t="s">
+      <c r="F47" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="G47" s="43" t="s">
+      <c r="G47" s="54" t="s">
         <v>12</v>
       </c>
       <c r="H47" s="7" t="s">
@@ -7353,13 +7369,13 @@
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="61"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="44"/>
+      <c r="A48" s="44"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="55"/>
       <c r="H48" s="12" t="s">
         <v>14</v>
       </c>
@@ -7386,13 +7402,13 @@
       </c>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="61"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="44"/>
+      <c r="A49" s="44"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="55"/>
       <c r="H49" s="12" t="s">
         <v>15</v>
       </c>
@@ -7419,13 +7435,13 @@
       </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="61"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="44"/>
+      <c r="A50" s="44"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="55"/>
       <c r="H50" s="12" t="s">
         <v>16</v>
       </c>
@@ -7452,13 +7468,13 @@
       </c>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="61"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="44"/>
+      <c r="A51" s="44"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="55"/>
       <c r="H51" s="12" t="s">
         <v>17</v>
       </c>
@@ -7485,13 +7501,13 @@
       </c>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="61"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="44"/>
+      <c r="A52" s="44"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="55"/>
       <c r="H52" s="16" t="s">
         <v>18</v>
       </c>
@@ -7518,13 +7534,13 @@
       </c>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="61"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="44"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="55"/>
       <c r="H53" s="12" t="s">
         <v>19</v>
       </c>
@@ -7551,13 +7567,13 @@
       </c>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="61"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="44"/>
+      <c r="A54" s="44"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="55"/>
       <c r="H54" s="12" t="s">
         <v>20</v>
       </c>
@@ -7584,13 +7600,13 @@
       </c>
     </row>
     <row r="55" spans="1:15" ht="17" thickBot="1">
-      <c r="A55" s="62"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="44"/>
+      <c r="A55" s="45"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="55"/>
       <c r="H55" s="17" t="s">
         <v>21</v>
       </c>
@@ -7617,25 +7633,25 @@
       </c>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="60" t="s">
+      <c r="A56" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="45" t="s">
+      <c r="B56" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="47" t="s">
+      <c r="C56" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="D56" s="49" t="s">
+      <c r="D56" s="50" t="s">
         <v>590</v>
       </c>
-      <c r="E56" s="51" t="s">
+      <c r="E56" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="51" t="s">
+      <c r="F56" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="G56" s="43" t="s">
+      <c r="G56" s="54" t="s">
         <v>12</v>
       </c>
       <c r="H56" s="7" t="s">
@@ -7664,13 +7680,13 @@
       </c>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="61"/>
-      <c r="B57" s="46"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="44"/>
+      <c r="A57" s="44"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="55"/>
       <c r="H57" s="12" t="s">
         <v>14</v>
       </c>
@@ -7697,13 +7713,13 @@
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="61"/>
-      <c r="B58" s="46"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="50"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="44"/>
+      <c r="A58" s="44"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="55"/>
       <c r="H58" s="12" t="s">
         <v>15</v>
       </c>
@@ -7730,13 +7746,13 @@
       </c>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="61"/>
-      <c r="B59" s="46"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="50"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="44"/>
+      <c r="A59" s="44"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="55"/>
       <c r="H59" s="12" t="s">
         <v>16</v>
       </c>
@@ -7763,13 +7779,13 @@
       </c>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="61"/>
-      <c r="B60" s="46"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="44"/>
+      <c r="A60" s="44"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="53"/>
+      <c r="G60" s="55"/>
       <c r="H60" s="16" t="s">
         <v>17</v>
       </c>
@@ -7796,13 +7812,13 @@
       </c>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="61"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="52"/>
-      <c r="F61" s="52"/>
-      <c r="G61" s="44"/>
+      <c r="A61" s="44"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="55"/>
       <c r="H61" s="12" t="s">
         <v>18</v>
       </c>
@@ -7829,13 +7845,13 @@
       </c>
     </row>
     <row r="62" spans="1:15">
-      <c r="A62" s="61"/>
-      <c r="B62" s="46"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="44"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="55"/>
       <c r="H62" s="12" t="s">
         <v>19</v>
       </c>
@@ -7862,13 +7878,13 @@
       </c>
     </row>
     <row r="63" spans="1:15">
-      <c r="A63" s="61"/>
-      <c r="B63" s="46"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="50"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="44"/>
+      <c r="A63" s="44"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="49"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="55"/>
       <c r="H63" s="12" t="s">
         <v>20</v>
       </c>
@@ -7895,13 +7911,13 @@
       </c>
     </row>
     <row r="64" spans="1:15" ht="17" thickBot="1">
-      <c r="A64" s="61"/>
-      <c r="B64" s="46"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="50"/>
-      <c r="E64" s="52"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="44"/>
+      <c r="A64" s="44"/>
+      <c r="B64" s="47"/>
+      <c r="C64" s="49"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="55"/>
       <c r="H64" s="17" t="s">
         <v>21</v>
       </c>
@@ -7928,23 +7944,23 @@
       </c>
     </row>
     <row r="65" spans="1:15">
-      <c r="A65" s="61"/>
-      <c r="B65" s="45" t="s">
+      <c r="A65" s="44"/>
+      <c r="B65" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="47" t="s">
+      <c r="C65" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="D65" s="49" t="s">
+      <c r="D65" s="50" t="s">
         <v>590</v>
       </c>
-      <c r="E65" s="51" t="s">
+      <c r="E65" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="51" t="s">
+      <c r="F65" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="G65" s="43" t="s">
+      <c r="G65" s="54" t="s">
         <v>24</v>
       </c>
       <c r="H65" s="7" t="s">
@@ -7973,13 +7989,13 @@
       </c>
     </row>
     <row r="66" spans="1:15">
-      <c r="A66" s="61"/>
-      <c r="B66" s="46"/>
-      <c r="C66" s="48"/>
-      <c r="D66" s="50"/>
-      <c r="E66" s="52"/>
-      <c r="F66" s="52"/>
-      <c r="G66" s="44"/>
+      <c r="A66" s="44"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="55"/>
       <c r="H66" s="12" t="s">
         <v>14</v>
       </c>
@@ -8006,13 +8022,13 @@
       </c>
     </row>
     <row r="67" spans="1:15">
-      <c r="A67" s="61"/>
-      <c r="B67" s="46"/>
-      <c r="C67" s="48"/>
-      <c r="D67" s="50"/>
-      <c r="E67" s="52"/>
-      <c r="F67" s="52"/>
-      <c r="G67" s="44"/>
+      <c r="A67" s="44"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="55"/>
       <c r="H67" s="12" t="s">
         <v>15</v>
       </c>
@@ -8039,13 +8055,13 @@
       </c>
     </row>
     <row r="68" spans="1:15">
-      <c r="A68" s="61"/>
-      <c r="B68" s="46"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="50"/>
-      <c r="E68" s="52"/>
-      <c r="F68" s="52"/>
-      <c r="G68" s="44"/>
+      <c r="A68" s="44"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="51"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="55"/>
       <c r="H68" s="12" t="s">
         <v>16</v>
       </c>
@@ -8072,13 +8088,13 @@
       </c>
     </row>
     <row r="69" spans="1:15">
-      <c r="A69" s="61"/>
-      <c r="B69" s="46"/>
-      <c r="C69" s="48"/>
-      <c r="D69" s="50"/>
-      <c r="E69" s="52"/>
-      <c r="F69" s="52"/>
-      <c r="G69" s="44"/>
+      <c r="A69" s="44"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="55"/>
       <c r="H69" s="12" t="s">
         <v>17</v>
       </c>
@@ -8105,13 +8121,13 @@
       </c>
     </row>
     <row r="70" spans="1:15">
-      <c r="A70" s="61"/>
-      <c r="B70" s="46"/>
-      <c r="C70" s="48"/>
-      <c r="D70" s="50"/>
-      <c r="E70" s="52"/>
-      <c r="F70" s="52"/>
-      <c r="G70" s="44"/>
+      <c r="A70" s="44"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="53"/>
+      <c r="F70" s="53"/>
+      <c r="G70" s="55"/>
       <c r="H70" s="12" t="s">
         <v>18</v>
       </c>
@@ -8138,13 +8154,13 @@
       </c>
     </row>
     <row r="71" spans="1:15">
-      <c r="A71" s="61"/>
-      <c r="B71" s="46"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="50"/>
-      <c r="E71" s="52"/>
-      <c r="F71" s="52"/>
-      <c r="G71" s="44"/>
+      <c r="A71" s="44"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="53"/>
+      <c r="F71" s="53"/>
+      <c r="G71" s="55"/>
       <c r="H71" s="16" t="s">
         <v>19</v>
       </c>
@@ -8171,13 +8187,13 @@
       </c>
     </row>
     <row r="72" spans="1:15">
-      <c r="A72" s="61"/>
-      <c r="B72" s="46"/>
-      <c r="C72" s="48"/>
-      <c r="D72" s="50"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="44"/>
+      <c r="A72" s="44"/>
+      <c r="B72" s="47"/>
+      <c r="C72" s="49"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="55"/>
       <c r="H72" s="12" t="s">
         <v>20</v>
       </c>
@@ -8204,13 +8220,13 @@
       </c>
     </row>
     <row r="73" spans="1:15" ht="17" thickBot="1">
-      <c r="A73" s="61"/>
-      <c r="B73" s="46"/>
-      <c r="C73" s="48"/>
-      <c r="D73" s="50"/>
-      <c r="E73" s="52"/>
-      <c r="F73" s="59"/>
-      <c r="G73" s="44"/>
+      <c r="A73" s="44"/>
+      <c r="B73" s="47"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="53"/>
+      <c r="F73" s="56"/>
+      <c r="G73" s="55"/>
       <c r="H73" s="12" t="s">
         <v>21</v>
       </c>
@@ -8237,23 +8253,23 @@
       </c>
     </row>
     <row r="74" spans="1:15">
-      <c r="A74" s="61"/>
-      <c r="B74" s="45" t="s">
+      <c r="A74" s="44"/>
+      <c r="B74" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C74" s="47" t="s">
+      <c r="C74" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="D74" s="49" t="s">
+      <c r="D74" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="E74" s="51" t="s">
+      <c r="E74" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F74" s="51" t="s">
+      <c r="F74" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="G74" s="43" t="s">
+      <c r="G74" s="54" t="s">
         <v>590</v>
       </c>
       <c r="H74" s="7" t="s">
@@ -8282,13 +8298,13 @@
       </c>
     </row>
     <row r="75" spans="1:15">
-      <c r="A75" s="61"/>
-      <c r="B75" s="46"/>
-      <c r="C75" s="48"/>
-      <c r="D75" s="50"/>
-      <c r="E75" s="52"/>
-      <c r="F75" s="52"/>
-      <c r="G75" s="44"/>
+      <c r="A75" s="44"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="51"/>
+      <c r="E75" s="53"/>
+      <c r="F75" s="53"/>
+      <c r="G75" s="55"/>
       <c r="H75" s="12" t="s">
         <v>14</v>
       </c>
@@ -8315,13 +8331,13 @@
       </c>
     </row>
     <row r="76" spans="1:15">
-      <c r="A76" s="61"/>
-      <c r="B76" s="46"/>
-      <c r="C76" s="48"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="52"/>
-      <c r="F76" s="52"/>
-      <c r="G76" s="44"/>
+      <c r="A76" s="44"/>
+      <c r="B76" s="47"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="55"/>
       <c r="H76" s="12" t="s">
         <v>15</v>
       </c>
@@ -8348,13 +8364,13 @@
       </c>
     </row>
     <row r="77" spans="1:15">
-      <c r="A77" s="61"/>
-      <c r="B77" s="46"/>
-      <c r="C77" s="48"/>
-      <c r="D77" s="50"/>
-      <c r="E77" s="52"/>
-      <c r="F77" s="52"/>
-      <c r="G77" s="44"/>
+      <c r="A77" s="44"/>
+      <c r="B77" s="47"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="53"/>
+      <c r="F77" s="53"/>
+      <c r="G77" s="55"/>
       <c r="H77" s="12" t="s">
         <v>16</v>
       </c>
@@ -8381,13 +8397,13 @@
       </c>
     </row>
     <row r="78" spans="1:15">
-      <c r="A78" s="61"/>
-      <c r="B78" s="46"/>
-      <c r="C78" s="48"/>
-      <c r="D78" s="50"/>
-      <c r="E78" s="52"/>
-      <c r="F78" s="52"/>
-      <c r="G78" s="44"/>
+      <c r="A78" s="44"/>
+      <c r="B78" s="47"/>
+      <c r="C78" s="49"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="53"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="55"/>
       <c r="H78" s="12" t="s">
         <v>17</v>
       </c>
@@ -8414,13 +8430,13 @@
       </c>
     </row>
     <row r="79" spans="1:15">
-      <c r="A79" s="61"/>
-      <c r="B79" s="46"/>
-      <c r="C79" s="48"/>
-      <c r="D79" s="50"/>
-      <c r="E79" s="52"/>
-      <c r="F79" s="52"/>
-      <c r="G79" s="44"/>
+      <c r="A79" s="44"/>
+      <c r="B79" s="47"/>
+      <c r="C79" s="49"/>
+      <c r="D79" s="51"/>
+      <c r="E79" s="53"/>
+      <c r="F79" s="53"/>
+      <c r="G79" s="55"/>
       <c r="H79" s="16" t="s">
         <v>18</v>
       </c>
@@ -8447,13 +8463,13 @@
       </c>
     </row>
     <row r="80" spans="1:15">
-      <c r="A80" s="61"/>
-      <c r="B80" s="46"/>
-      <c r="C80" s="48"/>
-      <c r="D80" s="50"/>
-      <c r="E80" s="52"/>
-      <c r="F80" s="52"/>
-      <c r="G80" s="44"/>
+      <c r="A80" s="44"/>
+      <c r="B80" s="47"/>
+      <c r="C80" s="49"/>
+      <c r="D80" s="51"/>
+      <c r="E80" s="53"/>
+      <c r="F80" s="53"/>
+      <c r="G80" s="55"/>
       <c r="H80" s="12" t="s">
         <v>19</v>
       </c>
@@ -8480,13 +8496,13 @@
       </c>
     </row>
     <row r="81" spans="1:15">
-      <c r="A81" s="61"/>
-      <c r="B81" s="46"/>
-      <c r="C81" s="48"/>
-      <c r="D81" s="50"/>
-      <c r="E81" s="52"/>
-      <c r="F81" s="52"/>
-      <c r="G81" s="44"/>
+      <c r="A81" s="44"/>
+      <c r="B81" s="47"/>
+      <c r="C81" s="49"/>
+      <c r="D81" s="51"/>
+      <c r="E81" s="53"/>
+      <c r="F81" s="53"/>
+      <c r="G81" s="55"/>
       <c r="H81" s="12" t="s">
         <v>20</v>
       </c>
@@ -8513,13 +8529,13 @@
       </c>
     </row>
     <row r="82" spans="1:15" ht="17" thickBot="1">
-      <c r="A82" s="61"/>
-      <c r="B82" s="46"/>
-      <c r="C82" s="48"/>
-      <c r="D82" s="50"/>
-      <c r="E82" s="52"/>
-      <c r="F82" s="52"/>
-      <c r="G82" s="44"/>
+      <c r="A82" s="44"/>
+      <c r="B82" s="47"/>
+      <c r="C82" s="49"/>
+      <c r="D82" s="51"/>
+      <c r="E82" s="53"/>
+      <c r="F82" s="53"/>
+      <c r="G82" s="55"/>
       <c r="H82" s="17" t="s">
         <v>21</v>
       </c>
@@ -8546,23 +8562,23 @@
       </c>
     </row>
     <row r="83" spans="1:15">
-      <c r="A83" s="61"/>
-      <c r="B83" s="45" t="s">
+      <c r="A83" s="44"/>
+      <c r="B83" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C83" s="47" t="s">
+      <c r="C83" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="D83" s="49" t="s">
+      <c r="D83" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="E83" s="51" t="s">
+      <c r="E83" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F83" s="51" t="s">
+      <c r="F83" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="G83" s="43" t="s">
+      <c r="G83" s="54" t="s">
         <v>24</v>
       </c>
       <c r="H83" s="7" t="s">
@@ -8591,13 +8607,13 @@
       </c>
     </row>
     <row r="84" spans="1:15">
-      <c r="A84" s="61"/>
-      <c r="B84" s="46"/>
-      <c r="C84" s="48"/>
-      <c r="D84" s="50"/>
-      <c r="E84" s="52"/>
-      <c r="F84" s="52"/>
-      <c r="G84" s="44"/>
+      <c r="A84" s="44"/>
+      <c r="B84" s="47"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="53"/>
+      <c r="F84" s="53"/>
+      <c r="G84" s="55"/>
       <c r="H84" s="12" t="s">
         <v>14</v>
       </c>
@@ -8624,13 +8640,13 @@
       </c>
     </row>
     <row r="85" spans="1:15">
-      <c r="A85" s="61"/>
-      <c r="B85" s="46"/>
-      <c r="C85" s="48"/>
-      <c r="D85" s="50"/>
-      <c r="E85" s="52"/>
-      <c r="F85" s="52"/>
-      <c r="G85" s="44"/>
+      <c r="A85" s="44"/>
+      <c r="B85" s="47"/>
+      <c r="C85" s="49"/>
+      <c r="D85" s="51"/>
+      <c r="E85" s="53"/>
+      <c r="F85" s="53"/>
+      <c r="G85" s="55"/>
       <c r="H85" s="12" t="s">
         <v>15</v>
       </c>
@@ -8657,13 +8673,13 @@
       </c>
     </row>
     <row r="86" spans="1:15">
-      <c r="A86" s="61"/>
-      <c r="B86" s="46"/>
-      <c r="C86" s="48"/>
-      <c r="D86" s="50"/>
-      <c r="E86" s="52"/>
-      <c r="F86" s="52"/>
-      <c r="G86" s="44"/>
+      <c r="A86" s="44"/>
+      <c r="B86" s="47"/>
+      <c r="C86" s="49"/>
+      <c r="D86" s="51"/>
+      <c r="E86" s="53"/>
+      <c r="F86" s="53"/>
+      <c r="G86" s="55"/>
       <c r="H86" s="12" t="s">
         <v>16</v>
       </c>
@@ -8690,13 +8706,13 @@
       </c>
     </row>
     <row r="87" spans="1:15">
-      <c r="A87" s="61"/>
-      <c r="B87" s="46"/>
-      <c r="C87" s="48"/>
-      <c r="D87" s="50"/>
-      <c r="E87" s="52"/>
-      <c r="F87" s="52"/>
-      <c r="G87" s="44"/>
+      <c r="A87" s="44"/>
+      <c r="B87" s="47"/>
+      <c r="C87" s="49"/>
+      <c r="D87" s="51"/>
+      <c r="E87" s="53"/>
+      <c r="F87" s="53"/>
+      <c r="G87" s="55"/>
       <c r="H87" s="16" t="s">
         <v>17</v>
       </c>
@@ -8723,13 +8739,13 @@
       </c>
     </row>
     <row r="88" spans="1:15">
-      <c r="A88" s="61"/>
-      <c r="B88" s="46"/>
-      <c r="C88" s="48"/>
-      <c r="D88" s="50"/>
-      <c r="E88" s="52"/>
-      <c r="F88" s="52"/>
-      <c r="G88" s="44"/>
+      <c r="A88" s="44"/>
+      <c r="B88" s="47"/>
+      <c r="C88" s="49"/>
+      <c r="D88" s="51"/>
+      <c r="E88" s="53"/>
+      <c r="F88" s="53"/>
+      <c r="G88" s="55"/>
       <c r="H88" s="12" t="s">
         <v>18</v>
       </c>
@@ -8756,13 +8772,13 @@
       </c>
     </row>
     <row r="89" spans="1:15">
-      <c r="A89" s="61"/>
-      <c r="B89" s="46"/>
-      <c r="C89" s="48"/>
-      <c r="D89" s="50"/>
-      <c r="E89" s="52"/>
-      <c r="F89" s="52"/>
-      <c r="G89" s="44"/>
+      <c r="A89" s="44"/>
+      <c r="B89" s="47"/>
+      <c r="C89" s="49"/>
+      <c r="D89" s="51"/>
+      <c r="E89" s="53"/>
+      <c r="F89" s="53"/>
+      <c r="G89" s="55"/>
       <c r="H89" s="12" t="s">
         <v>19</v>
       </c>
@@ -8789,13 +8805,13 @@
       </c>
     </row>
     <row r="90" spans="1:15">
-      <c r="A90" s="61"/>
-      <c r="B90" s="46"/>
-      <c r="C90" s="48"/>
-      <c r="D90" s="50"/>
-      <c r="E90" s="52"/>
-      <c r="F90" s="52"/>
-      <c r="G90" s="44"/>
+      <c r="A90" s="44"/>
+      <c r="B90" s="47"/>
+      <c r="C90" s="49"/>
+      <c r="D90" s="51"/>
+      <c r="E90" s="53"/>
+      <c r="F90" s="53"/>
+      <c r="G90" s="55"/>
       <c r="H90" s="12" t="s">
         <v>20</v>
       </c>
@@ -8822,13 +8838,13 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="17" thickBot="1">
-      <c r="A91" s="61"/>
-      <c r="B91" s="46"/>
-      <c r="C91" s="48"/>
-      <c r="D91" s="50"/>
-      <c r="E91" s="52"/>
-      <c r="F91" s="52"/>
-      <c r="G91" s="44"/>
+      <c r="A91" s="44"/>
+      <c r="B91" s="47"/>
+      <c r="C91" s="49"/>
+      <c r="D91" s="51"/>
+      <c r="E91" s="53"/>
+      <c r="F91" s="53"/>
+      <c r="G91" s="55"/>
       <c r="H91" s="17" t="s">
         <v>21</v>
       </c>
@@ -8855,23 +8871,23 @@
       </c>
     </row>
     <row r="92" spans="1:15">
-      <c r="A92" s="61"/>
-      <c r="B92" s="45" t="s">
+      <c r="A92" s="44"/>
+      <c r="B92" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C92" s="47" t="s">
+      <c r="C92" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="D92" s="49" t="s">
+      <c r="D92" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="E92" s="51" t="s">
+      <c r="E92" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F92" s="51" t="s">
+      <c r="F92" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="G92" s="43" t="s">
+      <c r="G92" s="54" t="s">
         <v>590</v>
       </c>
       <c r="H92" s="7" t="s">
@@ -8900,13 +8916,13 @@
       </c>
     </row>
     <row r="93" spans="1:15">
-      <c r="A93" s="61"/>
-      <c r="B93" s="46"/>
-      <c r="C93" s="48"/>
-      <c r="D93" s="50"/>
-      <c r="E93" s="52"/>
-      <c r="F93" s="52"/>
-      <c r="G93" s="44"/>
+      <c r="A93" s="44"/>
+      <c r="B93" s="47"/>
+      <c r="C93" s="49"/>
+      <c r="D93" s="51"/>
+      <c r="E93" s="53"/>
+      <c r="F93" s="53"/>
+      <c r="G93" s="55"/>
       <c r="H93" s="12" t="s">
         <v>14</v>
       </c>
@@ -8933,13 +8949,13 @@
       </c>
     </row>
     <row r="94" spans="1:15">
-      <c r="A94" s="61"/>
-      <c r="B94" s="46"/>
-      <c r="C94" s="48"/>
-      <c r="D94" s="50"/>
-      <c r="E94" s="52"/>
-      <c r="F94" s="52"/>
-      <c r="G94" s="44"/>
+      <c r="A94" s="44"/>
+      <c r="B94" s="47"/>
+      <c r="C94" s="49"/>
+      <c r="D94" s="51"/>
+      <c r="E94" s="53"/>
+      <c r="F94" s="53"/>
+      <c r="G94" s="55"/>
       <c r="H94" s="12" t="s">
         <v>15</v>
       </c>
@@ -8966,13 +8982,13 @@
       </c>
     </row>
     <row r="95" spans="1:15">
-      <c r="A95" s="61"/>
-      <c r="B95" s="46"/>
-      <c r="C95" s="48"/>
-      <c r="D95" s="50"/>
-      <c r="E95" s="52"/>
-      <c r="F95" s="52"/>
-      <c r="G95" s="44"/>
+      <c r="A95" s="44"/>
+      <c r="B95" s="47"/>
+      <c r="C95" s="49"/>
+      <c r="D95" s="51"/>
+      <c r="E95" s="53"/>
+      <c r="F95" s="53"/>
+      <c r="G95" s="55"/>
       <c r="H95" s="12" t="s">
         <v>16</v>
       </c>
@@ -8999,13 +9015,13 @@
       </c>
     </row>
     <row r="96" spans="1:15">
-      <c r="A96" s="61"/>
-      <c r="B96" s="46"/>
-      <c r="C96" s="48"/>
-      <c r="D96" s="50"/>
-      <c r="E96" s="52"/>
-      <c r="F96" s="52"/>
-      <c r="G96" s="44"/>
+      <c r="A96" s="44"/>
+      <c r="B96" s="47"/>
+      <c r="C96" s="49"/>
+      <c r="D96" s="51"/>
+      <c r="E96" s="53"/>
+      <c r="F96" s="53"/>
+      <c r="G96" s="55"/>
       <c r="H96" s="16" t="s">
         <v>17</v>
       </c>
@@ -9032,13 +9048,13 @@
       </c>
     </row>
     <row r="97" spans="1:27">
-      <c r="A97" s="61"/>
-      <c r="B97" s="46"/>
-      <c r="C97" s="48"/>
-      <c r="D97" s="50"/>
-      <c r="E97" s="52"/>
-      <c r="F97" s="52"/>
-      <c r="G97" s="44"/>
+      <c r="A97" s="44"/>
+      <c r="B97" s="47"/>
+      <c r="C97" s="49"/>
+      <c r="D97" s="51"/>
+      <c r="E97" s="53"/>
+      <c r="F97" s="53"/>
+      <c r="G97" s="55"/>
       <c r="H97" s="12" t="s">
         <v>18</v>
       </c>
@@ -9065,13 +9081,13 @@
       </c>
     </row>
     <row r="98" spans="1:27">
-      <c r="A98" s="61"/>
-      <c r="B98" s="46"/>
-      <c r="C98" s="48"/>
-      <c r="D98" s="50"/>
-      <c r="E98" s="52"/>
-      <c r="F98" s="52"/>
-      <c r="G98" s="44"/>
+      <c r="A98" s="44"/>
+      <c r="B98" s="47"/>
+      <c r="C98" s="49"/>
+      <c r="D98" s="51"/>
+      <c r="E98" s="53"/>
+      <c r="F98" s="53"/>
+      <c r="G98" s="55"/>
       <c r="H98" s="12" t="s">
         <v>19</v>
       </c>
@@ -9098,13 +9114,13 @@
       </c>
     </row>
     <row r="99" spans="1:27">
-      <c r="A99" s="61"/>
-      <c r="B99" s="46"/>
-      <c r="C99" s="48"/>
-      <c r="D99" s="50"/>
-      <c r="E99" s="52"/>
-      <c r="F99" s="52"/>
-      <c r="G99" s="44"/>
+      <c r="A99" s="44"/>
+      <c r="B99" s="47"/>
+      <c r="C99" s="49"/>
+      <c r="D99" s="51"/>
+      <c r="E99" s="53"/>
+      <c r="F99" s="53"/>
+      <c r="G99" s="55"/>
       <c r="H99" s="12" t="s">
         <v>20</v>
       </c>
@@ -9131,13 +9147,13 @@
       </c>
     </row>
     <row r="100" spans="1:27" ht="17" thickBot="1">
-      <c r="A100" s="61"/>
-      <c r="B100" s="46"/>
-      <c r="C100" s="48"/>
-      <c r="D100" s="50"/>
-      <c r="E100" s="52"/>
-      <c r="F100" s="52"/>
-      <c r="G100" s="44"/>
+      <c r="A100" s="44"/>
+      <c r="B100" s="47"/>
+      <c r="C100" s="49"/>
+      <c r="D100" s="51"/>
+      <c r="E100" s="53"/>
+      <c r="F100" s="53"/>
+      <c r="G100" s="55"/>
       <c r="H100" s="17" t="s">
         <v>21</v>
       </c>
@@ -9164,23 +9180,23 @@
       </c>
     </row>
     <row r="101" spans="1:27">
-      <c r="A101" s="61"/>
-      <c r="B101" s="45" t="s">
+      <c r="A101" s="44"/>
+      <c r="B101" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C101" s="47" t="s">
+      <c r="C101" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="D101" s="49" t="s">
+      <c r="D101" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="E101" s="51" t="s">
+      <c r="E101" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F101" s="51" t="s">
+      <c r="F101" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="G101" s="43" t="s">
+      <c r="G101" s="54" t="s">
         <v>12</v>
       </c>
       <c r="H101" s="7" t="s">
@@ -9209,13 +9225,13 @@
       </c>
     </row>
     <row r="102" spans="1:27">
-      <c r="A102" s="61"/>
-      <c r="B102" s="46"/>
-      <c r="C102" s="48"/>
-      <c r="D102" s="50"/>
-      <c r="E102" s="52"/>
-      <c r="F102" s="52"/>
-      <c r="G102" s="44"/>
+      <c r="A102" s="44"/>
+      <c r="B102" s="47"/>
+      <c r="C102" s="49"/>
+      <c r="D102" s="51"/>
+      <c r="E102" s="53"/>
+      <c r="F102" s="53"/>
+      <c r="G102" s="55"/>
       <c r="H102" s="12" t="s">
         <v>14</v>
       </c>
@@ -9242,13 +9258,13 @@
       </c>
     </row>
     <row r="103" spans="1:27">
-      <c r="A103" s="61"/>
-      <c r="B103" s="46"/>
-      <c r="C103" s="48"/>
-      <c r="D103" s="50"/>
-      <c r="E103" s="52"/>
-      <c r="F103" s="52"/>
-      <c r="G103" s="44"/>
+      <c r="A103" s="44"/>
+      <c r="B103" s="47"/>
+      <c r="C103" s="49"/>
+      <c r="D103" s="51"/>
+      <c r="E103" s="53"/>
+      <c r="F103" s="53"/>
+      <c r="G103" s="55"/>
       <c r="H103" s="12" t="s">
         <v>15</v>
       </c>
@@ -9275,13 +9291,13 @@
       </c>
     </row>
     <row r="104" spans="1:27">
-      <c r="A104" s="61"/>
-      <c r="B104" s="46"/>
-      <c r="C104" s="48"/>
-      <c r="D104" s="50"/>
-      <c r="E104" s="52"/>
-      <c r="F104" s="52"/>
-      <c r="G104" s="44"/>
+      <c r="A104" s="44"/>
+      <c r="B104" s="47"/>
+      <c r="C104" s="49"/>
+      <c r="D104" s="51"/>
+      <c r="E104" s="53"/>
+      <c r="F104" s="53"/>
+      <c r="G104" s="55"/>
       <c r="H104" s="12" t="s">
         <v>16</v>
       </c>
@@ -9308,13 +9324,13 @@
       </c>
     </row>
     <row r="105" spans="1:27">
-      <c r="A105" s="61"/>
-      <c r="B105" s="46"/>
-      <c r="C105" s="48"/>
-      <c r="D105" s="50"/>
-      <c r="E105" s="52"/>
-      <c r="F105" s="52"/>
-      <c r="G105" s="44"/>
+      <c r="A105" s="44"/>
+      <c r="B105" s="47"/>
+      <c r="C105" s="49"/>
+      <c r="D105" s="51"/>
+      <c r="E105" s="53"/>
+      <c r="F105" s="53"/>
+      <c r="G105" s="55"/>
       <c r="H105" s="12" t="s">
         <v>17</v>
       </c>
@@ -9341,13 +9357,13 @@
       </c>
     </row>
     <row r="106" spans="1:27">
-      <c r="A106" s="61"/>
-      <c r="B106" s="46"/>
-      <c r="C106" s="48"/>
-      <c r="D106" s="50"/>
-      <c r="E106" s="52"/>
-      <c r="F106" s="52"/>
-      <c r="G106" s="44"/>
+      <c r="A106" s="44"/>
+      <c r="B106" s="47"/>
+      <c r="C106" s="49"/>
+      <c r="D106" s="51"/>
+      <c r="E106" s="53"/>
+      <c r="F106" s="53"/>
+      <c r="G106" s="55"/>
       <c r="H106" s="16" t="s">
         <v>18</v>
       </c>
@@ -9377,13 +9393,13 @@
       </c>
     </row>
     <row r="107" spans="1:27">
-      <c r="A107" s="61"/>
-      <c r="B107" s="46"/>
-      <c r="C107" s="48"/>
-      <c r="D107" s="50"/>
-      <c r="E107" s="52"/>
-      <c r="F107" s="52"/>
-      <c r="G107" s="44"/>
+      <c r="A107" s="44"/>
+      <c r="B107" s="47"/>
+      <c r="C107" s="49"/>
+      <c r="D107" s="51"/>
+      <c r="E107" s="53"/>
+      <c r="F107" s="53"/>
+      <c r="G107" s="55"/>
       <c r="H107" s="12" t="s">
         <v>19</v>
       </c>
@@ -9410,13 +9426,13 @@
       </c>
     </row>
     <row r="108" spans="1:27">
-      <c r="A108" s="61"/>
-      <c r="B108" s="46"/>
-      <c r="C108" s="48"/>
-      <c r="D108" s="50"/>
-      <c r="E108" s="52"/>
-      <c r="F108" s="52"/>
-      <c r="G108" s="44"/>
+      <c r="A108" s="44"/>
+      <c r="B108" s="47"/>
+      <c r="C108" s="49"/>
+      <c r="D108" s="51"/>
+      <c r="E108" s="53"/>
+      <c r="F108" s="53"/>
+      <c r="G108" s="55"/>
       <c r="H108" s="12" t="s">
         <v>20</v>
       </c>
@@ -9443,13 +9459,13 @@
       </c>
     </row>
     <row r="109" spans="1:27" ht="17" thickBot="1">
-      <c r="A109" s="62"/>
-      <c r="B109" s="46"/>
-      <c r="C109" s="48"/>
-      <c r="D109" s="50"/>
-      <c r="E109" s="52"/>
-      <c r="F109" s="52"/>
-      <c r="G109" s="44"/>
+      <c r="A109" s="45"/>
+      <c r="B109" s="47"/>
+      <c r="C109" s="49"/>
+      <c r="D109" s="51"/>
+      <c r="E109" s="53"/>
+      <c r="F109" s="53"/>
+      <c r="G109" s="55"/>
       <c r="H109" s="17" t="s">
         <v>21</v>
       </c>
@@ -9476,25 +9492,25 @@
       </c>
     </row>
     <row r="110" spans="1:27">
-      <c r="A110" s="53" t="s">
+      <c r="A110" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="B110" s="45" t="s">
+      <c r="B110" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C110" s="47" t="s">
+      <c r="C110" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="D110" s="49" t="s">
+      <c r="D110" s="50" t="s">
         <v>590</v>
       </c>
-      <c r="E110" s="51" t="s">
+      <c r="E110" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F110" s="51" t="s">
+      <c r="F110" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="G110" s="43" t="s">
+      <c r="G110" s="54" t="s">
         <v>22</v>
       </c>
       <c r="H110" s="7" t="s">
@@ -9523,13 +9539,13 @@
       </c>
     </row>
     <row r="111" spans="1:27">
-      <c r="A111" s="54"/>
-      <c r="B111" s="46"/>
-      <c r="C111" s="48"/>
-      <c r="D111" s="50"/>
-      <c r="E111" s="52"/>
-      <c r="F111" s="52"/>
-      <c r="G111" s="44"/>
+      <c r="A111" s="58"/>
+      <c r="B111" s="47"/>
+      <c r="C111" s="49"/>
+      <c r="D111" s="51"/>
+      <c r="E111" s="53"/>
+      <c r="F111" s="53"/>
+      <c r="G111" s="55"/>
       <c r="H111" s="12" t="s">
         <v>14</v>
       </c>
@@ -9556,13 +9572,13 @@
       </c>
     </row>
     <row r="112" spans="1:27">
-      <c r="A112" s="54"/>
-      <c r="B112" s="46"/>
-      <c r="C112" s="48"/>
-      <c r="D112" s="50"/>
-      <c r="E112" s="52"/>
-      <c r="F112" s="52"/>
-      <c r="G112" s="44"/>
+      <c r="A112" s="58"/>
+      <c r="B112" s="47"/>
+      <c r="C112" s="49"/>
+      <c r="D112" s="51"/>
+      <c r="E112" s="53"/>
+      <c r="F112" s="53"/>
+      <c r="G112" s="55"/>
       <c r="H112" s="12" t="s">
         <v>15</v>
       </c>
@@ -9589,13 +9605,13 @@
       </c>
     </row>
     <row r="113" spans="1:15">
-      <c r="A113" s="54"/>
-      <c r="B113" s="46"/>
-      <c r="C113" s="48"/>
-      <c r="D113" s="50"/>
-      <c r="E113" s="52"/>
-      <c r="F113" s="52"/>
-      <c r="G113" s="44"/>
+      <c r="A113" s="58"/>
+      <c r="B113" s="47"/>
+      <c r="C113" s="49"/>
+      <c r="D113" s="51"/>
+      <c r="E113" s="53"/>
+      <c r="F113" s="53"/>
+      <c r="G113" s="55"/>
       <c r="H113" s="12" t="s">
         <v>16</v>
       </c>
@@ -9622,13 +9638,13 @@
       </c>
     </row>
     <row r="114" spans="1:15">
-      <c r="A114" s="54"/>
-      <c r="B114" s="46"/>
-      <c r="C114" s="48"/>
-      <c r="D114" s="50"/>
-      <c r="E114" s="52"/>
-      <c r="F114" s="52"/>
-      <c r="G114" s="44"/>
+      <c r="A114" s="58"/>
+      <c r="B114" s="47"/>
+      <c r="C114" s="49"/>
+      <c r="D114" s="51"/>
+      <c r="E114" s="53"/>
+      <c r="F114" s="53"/>
+      <c r="G114" s="55"/>
       <c r="H114" s="12" t="s">
         <v>17</v>
       </c>
@@ -9655,13 +9671,13 @@
       </c>
     </row>
     <row r="115" spans="1:15">
-      <c r="A115" s="54"/>
-      <c r="B115" s="46"/>
-      <c r="C115" s="48"/>
-      <c r="D115" s="50"/>
-      <c r="E115" s="52"/>
-      <c r="F115" s="52"/>
-      <c r="G115" s="44"/>
+      <c r="A115" s="58"/>
+      <c r="B115" s="47"/>
+      <c r="C115" s="49"/>
+      <c r="D115" s="51"/>
+      <c r="E115" s="53"/>
+      <c r="F115" s="53"/>
+      <c r="G115" s="55"/>
       <c r="H115" s="16" t="s">
         <v>18</v>
       </c>
@@ -9688,13 +9704,13 @@
       </c>
     </row>
     <row r="116" spans="1:15">
-      <c r="A116" s="54"/>
-      <c r="B116" s="46"/>
-      <c r="C116" s="48"/>
-      <c r="D116" s="50"/>
-      <c r="E116" s="52"/>
-      <c r="F116" s="52"/>
-      <c r="G116" s="44"/>
+      <c r="A116" s="58"/>
+      <c r="B116" s="47"/>
+      <c r="C116" s="49"/>
+      <c r="D116" s="51"/>
+      <c r="E116" s="53"/>
+      <c r="F116" s="53"/>
+      <c r="G116" s="55"/>
       <c r="H116" s="12" t="s">
         <v>19</v>
       </c>
@@ -9721,13 +9737,13 @@
       </c>
     </row>
     <row r="117" spans="1:15">
-      <c r="A117" s="54"/>
-      <c r="B117" s="46"/>
-      <c r="C117" s="48"/>
-      <c r="D117" s="50"/>
-      <c r="E117" s="52"/>
-      <c r="F117" s="52"/>
-      <c r="G117" s="44"/>
+      <c r="A117" s="58"/>
+      <c r="B117" s="47"/>
+      <c r="C117" s="49"/>
+      <c r="D117" s="51"/>
+      <c r="E117" s="53"/>
+      <c r="F117" s="53"/>
+      <c r="G117" s="55"/>
       <c r="H117" s="12" t="s">
         <v>20</v>
       </c>
@@ -9754,13 +9770,13 @@
       </c>
     </row>
     <row r="118" spans="1:15" ht="17" thickBot="1">
-      <c r="A118" s="54"/>
-      <c r="B118" s="46"/>
-      <c r="C118" s="48"/>
-      <c r="D118" s="50"/>
-      <c r="E118" s="52"/>
-      <c r="F118" s="52"/>
-      <c r="G118" s="44"/>
+      <c r="A118" s="58"/>
+      <c r="B118" s="47"/>
+      <c r="C118" s="49"/>
+      <c r="D118" s="51"/>
+      <c r="E118" s="53"/>
+      <c r="F118" s="53"/>
+      <c r="G118" s="55"/>
       <c r="H118" s="12" t="s">
         <v>21</v>
       </c>
@@ -9787,23 +9803,23 @@
       </c>
     </row>
     <row r="119" spans="1:15">
-      <c r="A119" s="54"/>
-      <c r="B119" s="45" t="s">
+      <c r="A119" s="58"/>
+      <c r="B119" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C119" s="47" t="s">
+      <c r="C119" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="D119" s="49" t="s">
+      <c r="D119" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="E119" s="51" t="s">
+      <c r="E119" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F119" s="51" t="s">
+      <c r="F119" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="G119" s="43" t="s">
+      <c r="G119" s="54" t="s">
         <v>22</v>
       </c>
       <c r="H119" s="7" t="s">
@@ -9832,13 +9848,13 @@
       </c>
     </row>
     <row r="120" spans="1:15">
-      <c r="A120" s="54"/>
-      <c r="B120" s="46"/>
-      <c r="C120" s="48"/>
-      <c r="D120" s="50"/>
-      <c r="E120" s="52"/>
-      <c r="F120" s="52"/>
-      <c r="G120" s="44"/>
+      <c r="A120" s="58"/>
+      <c r="B120" s="47"/>
+      <c r="C120" s="49"/>
+      <c r="D120" s="51"/>
+      <c r="E120" s="53"/>
+      <c r="F120" s="53"/>
+      <c r="G120" s="55"/>
       <c r="H120" s="12" t="s">
         <v>14</v>
       </c>
@@ -9865,13 +9881,13 @@
       </c>
     </row>
     <row r="121" spans="1:15">
-      <c r="A121" s="54"/>
-      <c r="B121" s="46"/>
-      <c r="C121" s="48"/>
-      <c r="D121" s="50"/>
-      <c r="E121" s="52"/>
-      <c r="F121" s="52"/>
-      <c r="G121" s="44"/>
+      <c r="A121" s="58"/>
+      <c r="B121" s="47"/>
+      <c r="C121" s="49"/>
+      <c r="D121" s="51"/>
+      <c r="E121" s="53"/>
+      <c r="F121" s="53"/>
+      <c r="G121" s="55"/>
       <c r="H121" s="12" t="s">
         <v>15</v>
       </c>
@@ -9898,13 +9914,13 @@
       </c>
     </row>
     <row r="122" spans="1:15">
-      <c r="A122" s="54"/>
-      <c r="B122" s="46"/>
-      <c r="C122" s="48"/>
-      <c r="D122" s="50"/>
-      <c r="E122" s="52"/>
-      <c r="F122" s="52"/>
-      <c r="G122" s="44"/>
+      <c r="A122" s="58"/>
+      <c r="B122" s="47"/>
+      <c r="C122" s="49"/>
+      <c r="D122" s="51"/>
+      <c r="E122" s="53"/>
+      <c r="F122" s="53"/>
+      <c r="G122" s="55"/>
       <c r="H122" s="12" t="s">
         <v>16</v>
       </c>
@@ -9931,13 +9947,13 @@
       </c>
     </row>
     <row r="123" spans="1:15">
-      <c r="A123" s="54"/>
-      <c r="B123" s="46"/>
-      <c r="C123" s="48"/>
-      <c r="D123" s="50"/>
-      <c r="E123" s="52"/>
-      <c r="F123" s="52"/>
-      <c r="G123" s="44"/>
+      <c r="A123" s="58"/>
+      <c r="B123" s="47"/>
+      <c r="C123" s="49"/>
+      <c r="D123" s="51"/>
+      <c r="E123" s="53"/>
+      <c r="F123" s="53"/>
+      <c r="G123" s="55"/>
       <c r="H123" s="16" t="s">
         <v>17</v>
       </c>
@@ -9964,13 +9980,13 @@
       </c>
     </row>
     <row r="124" spans="1:15">
-      <c r="A124" s="54"/>
-      <c r="B124" s="46"/>
-      <c r="C124" s="48"/>
-      <c r="D124" s="50"/>
-      <c r="E124" s="52"/>
-      <c r="F124" s="52"/>
-      <c r="G124" s="44"/>
+      <c r="A124" s="58"/>
+      <c r="B124" s="47"/>
+      <c r="C124" s="49"/>
+      <c r="D124" s="51"/>
+      <c r="E124" s="53"/>
+      <c r="F124" s="53"/>
+      <c r="G124" s="55"/>
       <c r="H124" s="12" t="s">
         <v>18</v>
       </c>
@@ -9997,13 +10013,13 @@
       </c>
     </row>
     <row r="125" spans="1:15">
-      <c r="A125" s="54"/>
-      <c r="B125" s="46"/>
-      <c r="C125" s="48"/>
-      <c r="D125" s="50"/>
-      <c r="E125" s="52"/>
-      <c r="F125" s="52"/>
-      <c r="G125" s="44"/>
+      <c r="A125" s="58"/>
+      <c r="B125" s="47"/>
+      <c r="C125" s="49"/>
+      <c r="D125" s="51"/>
+      <c r="E125" s="53"/>
+      <c r="F125" s="53"/>
+      <c r="G125" s="55"/>
       <c r="H125" s="12" t="s">
         <v>19</v>
       </c>
@@ -10030,13 +10046,13 @@
       </c>
     </row>
     <row r="126" spans="1:15">
-      <c r="A126" s="54"/>
-      <c r="B126" s="46"/>
-      <c r="C126" s="48"/>
-      <c r="D126" s="50"/>
-      <c r="E126" s="52"/>
-      <c r="F126" s="52"/>
-      <c r="G126" s="44"/>
+      <c r="A126" s="58"/>
+      <c r="B126" s="47"/>
+      <c r="C126" s="49"/>
+      <c r="D126" s="51"/>
+      <c r="E126" s="53"/>
+      <c r="F126" s="53"/>
+      <c r="G126" s="55"/>
       <c r="H126" s="12" t="s">
         <v>20</v>
       </c>
@@ -10063,13 +10079,13 @@
       </c>
     </row>
     <row r="127" spans="1:15" ht="17" thickBot="1">
-      <c r="A127" s="54"/>
-      <c r="B127" s="46"/>
-      <c r="C127" s="48"/>
-      <c r="D127" s="50"/>
-      <c r="E127" s="52"/>
-      <c r="F127" s="52"/>
-      <c r="G127" s="44"/>
+      <c r="A127" s="58"/>
+      <c r="B127" s="47"/>
+      <c r="C127" s="49"/>
+      <c r="D127" s="51"/>
+      <c r="E127" s="53"/>
+      <c r="F127" s="53"/>
+      <c r="G127" s="55"/>
       <c r="H127" s="17" t="s">
         <v>21</v>
       </c>
@@ -10096,23 +10112,23 @@
       </c>
     </row>
     <row r="128" spans="1:15">
-      <c r="A128" s="54"/>
-      <c r="B128" s="45" t="s">
+      <c r="A128" s="58"/>
+      <c r="B128" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C128" s="47" t="s">
+      <c r="C128" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="D128" s="49" t="s">
+      <c r="D128" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="E128" s="51" t="s">
+      <c r="E128" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F128" s="51" t="s">
+      <c r="F128" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="G128" s="43" t="s">
+      <c r="G128" s="54" t="s">
         <v>590</v>
       </c>
       <c r="H128" s="7" t="s">
@@ -10141,13 +10157,13 @@
       </c>
     </row>
     <row r="129" spans="1:16">
-      <c r="A129" s="54"/>
-      <c r="B129" s="46"/>
-      <c r="C129" s="48"/>
-      <c r="D129" s="50"/>
-      <c r="E129" s="52"/>
-      <c r="F129" s="52"/>
-      <c r="G129" s="44"/>
+      <c r="A129" s="58"/>
+      <c r="B129" s="47"/>
+      <c r="C129" s="49"/>
+      <c r="D129" s="51"/>
+      <c r="E129" s="53"/>
+      <c r="F129" s="53"/>
+      <c r="G129" s="55"/>
       <c r="H129" s="12" t="s">
         <v>14</v>
       </c>
@@ -10174,13 +10190,13 @@
       </c>
     </row>
     <row r="130" spans="1:16">
-      <c r="A130" s="54"/>
-      <c r="B130" s="46"/>
-      <c r="C130" s="48"/>
-      <c r="D130" s="50"/>
-      <c r="E130" s="52"/>
-      <c r="F130" s="52"/>
-      <c r="G130" s="44"/>
+      <c r="A130" s="58"/>
+      <c r="B130" s="47"/>
+      <c r="C130" s="49"/>
+      <c r="D130" s="51"/>
+      <c r="E130" s="53"/>
+      <c r="F130" s="53"/>
+      <c r="G130" s="55"/>
       <c r="H130" s="12" t="s">
         <v>15</v>
       </c>
@@ -10207,13 +10223,13 @@
       </c>
     </row>
     <row r="131" spans="1:16">
-      <c r="A131" s="54"/>
-      <c r="B131" s="46"/>
-      <c r="C131" s="48"/>
-      <c r="D131" s="50"/>
-      <c r="E131" s="52"/>
-      <c r="F131" s="52"/>
-      <c r="G131" s="44"/>
+      <c r="A131" s="58"/>
+      <c r="B131" s="47"/>
+      <c r="C131" s="49"/>
+      <c r="D131" s="51"/>
+      <c r="E131" s="53"/>
+      <c r="F131" s="53"/>
+      <c r="G131" s="55"/>
       <c r="H131" s="12" t="s">
         <v>16</v>
       </c>
@@ -10240,13 +10256,13 @@
       </c>
     </row>
     <row r="132" spans="1:16">
-      <c r="A132" s="54"/>
-      <c r="B132" s="46"/>
-      <c r="C132" s="48"/>
-      <c r="D132" s="50"/>
-      <c r="E132" s="52"/>
-      <c r="F132" s="52"/>
-      <c r="G132" s="44"/>
+      <c r="A132" s="58"/>
+      <c r="B132" s="47"/>
+      <c r="C132" s="49"/>
+      <c r="D132" s="51"/>
+      <c r="E132" s="53"/>
+      <c r="F132" s="53"/>
+      <c r="G132" s="55"/>
       <c r="H132" s="16" t="s">
         <v>17</v>
       </c>
@@ -10273,13 +10289,13 @@
       </c>
     </row>
     <row r="133" spans="1:16">
-      <c r="A133" s="54"/>
-      <c r="B133" s="46"/>
-      <c r="C133" s="48"/>
-      <c r="D133" s="50"/>
-      <c r="E133" s="52"/>
-      <c r="F133" s="52"/>
-      <c r="G133" s="44"/>
+      <c r="A133" s="58"/>
+      <c r="B133" s="47"/>
+      <c r="C133" s="49"/>
+      <c r="D133" s="51"/>
+      <c r="E133" s="53"/>
+      <c r="F133" s="53"/>
+      <c r="G133" s="55"/>
       <c r="H133" s="12" t="s">
         <v>18</v>
       </c>
@@ -10306,13 +10322,13 @@
       </c>
     </row>
     <row r="134" spans="1:16">
-      <c r="A134" s="54"/>
-      <c r="B134" s="46"/>
-      <c r="C134" s="48"/>
-      <c r="D134" s="50"/>
-      <c r="E134" s="52"/>
-      <c r="F134" s="52"/>
-      <c r="G134" s="44"/>
+      <c r="A134" s="58"/>
+      <c r="B134" s="47"/>
+      <c r="C134" s="49"/>
+      <c r="D134" s="51"/>
+      <c r="E134" s="53"/>
+      <c r="F134" s="53"/>
+      <c r="G134" s="55"/>
       <c r="H134" s="12" t="s">
         <v>19</v>
       </c>
@@ -10339,13 +10355,13 @@
       </c>
     </row>
     <row r="135" spans="1:16">
-      <c r="A135" s="54"/>
-      <c r="B135" s="46"/>
-      <c r="C135" s="48"/>
-      <c r="D135" s="50"/>
-      <c r="E135" s="52"/>
-      <c r="F135" s="52"/>
-      <c r="G135" s="44"/>
+      <c r="A135" s="58"/>
+      <c r="B135" s="47"/>
+      <c r="C135" s="49"/>
+      <c r="D135" s="51"/>
+      <c r="E135" s="53"/>
+      <c r="F135" s="53"/>
+      <c r="G135" s="55"/>
       <c r="H135" s="12" t="s">
         <v>20</v>
       </c>
@@ -10372,13 +10388,13 @@
       </c>
     </row>
     <row r="136" spans="1:16" ht="17" thickBot="1">
-      <c r="A136" s="54"/>
-      <c r="B136" s="46"/>
-      <c r="C136" s="48"/>
-      <c r="D136" s="50"/>
-      <c r="E136" s="52"/>
-      <c r="F136" s="52"/>
-      <c r="G136" s="44"/>
+      <c r="A136" s="58"/>
+      <c r="B136" s="47"/>
+      <c r="C136" s="49"/>
+      <c r="D136" s="51"/>
+      <c r="E136" s="53"/>
+      <c r="F136" s="53"/>
+      <c r="G136" s="55"/>
       <c r="H136" s="12" t="s">
         <v>21</v>
       </c>
@@ -10405,23 +10421,23 @@
       </c>
     </row>
     <row r="137" spans="1:16">
-      <c r="A137" s="54"/>
-      <c r="B137" s="45" t="s">
+      <c r="A137" s="58"/>
+      <c r="B137" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C137" s="47" t="s">
+      <c r="C137" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="D137" s="49" t="s">
+      <c r="D137" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="E137" s="51" t="s">
+      <c r="E137" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F137" s="51" t="s">
+      <c r="F137" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="G137" s="40" t="s">
+      <c r="G137" s="63" t="s">
         <v>12</v>
       </c>
       <c r="H137" s="21" t="s">
@@ -10450,13 +10466,13 @@
       </c>
     </row>
     <row r="138" spans="1:16">
-      <c r="A138" s="54"/>
-      <c r="B138" s="46"/>
-      <c r="C138" s="48"/>
-      <c r="D138" s="50"/>
-      <c r="E138" s="52"/>
-      <c r="F138" s="52"/>
-      <c r="G138" s="41"/>
+      <c r="A138" s="58"/>
+      <c r="B138" s="47"/>
+      <c r="C138" s="49"/>
+      <c r="D138" s="51"/>
+      <c r="E138" s="53"/>
+      <c r="F138" s="53"/>
+      <c r="G138" s="64"/>
       <c r="H138" s="22" t="s">
         <v>14</v>
       </c>
@@ -10483,13 +10499,13 @@
       </c>
     </row>
     <row r="139" spans="1:16">
-      <c r="A139" s="54"/>
-      <c r="B139" s="46"/>
-      <c r="C139" s="48"/>
-      <c r="D139" s="50"/>
-      <c r="E139" s="52"/>
-      <c r="F139" s="52"/>
-      <c r="G139" s="41"/>
+      <c r="A139" s="58"/>
+      <c r="B139" s="47"/>
+      <c r="C139" s="49"/>
+      <c r="D139" s="51"/>
+      <c r="E139" s="53"/>
+      <c r="F139" s="53"/>
+      <c r="G139" s="64"/>
       <c r="H139" s="22" t="s">
         <v>15</v>
       </c>
@@ -10516,13 +10532,13 @@
       </c>
     </row>
     <row r="140" spans="1:16">
-      <c r="A140" s="54"/>
-      <c r="B140" s="46"/>
-      <c r="C140" s="48"/>
-      <c r="D140" s="50"/>
-      <c r="E140" s="52"/>
-      <c r="F140" s="52"/>
-      <c r="G140" s="41"/>
+      <c r="A140" s="58"/>
+      <c r="B140" s="47"/>
+      <c r="C140" s="49"/>
+      <c r="D140" s="51"/>
+      <c r="E140" s="53"/>
+      <c r="F140" s="53"/>
+      <c r="G140" s="64"/>
       <c r="H140" s="22" t="s">
         <v>16</v>
       </c>
@@ -10550,13 +10566,13 @@
       <c r="P140" s="28"/>
     </row>
     <row r="141" spans="1:16">
-      <c r="A141" s="54"/>
-      <c r="B141" s="46"/>
-      <c r="C141" s="48"/>
-      <c r="D141" s="50"/>
-      <c r="E141" s="52"/>
-      <c r="F141" s="52"/>
-      <c r="G141" s="41"/>
+      <c r="A141" s="58"/>
+      <c r="B141" s="47"/>
+      <c r="C141" s="49"/>
+      <c r="D141" s="51"/>
+      <c r="E141" s="53"/>
+      <c r="F141" s="53"/>
+      <c r="G141" s="64"/>
       <c r="H141" s="22" t="s">
         <v>17</v>
       </c>
@@ -10583,13 +10599,13 @@
       </c>
     </row>
     <row r="142" spans="1:16">
-      <c r="A142" s="54"/>
-      <c r="B142" s="46"/>
-      <c r="C142" s="48"/>
-      <c r="D142" s="50"/>
-      <c r="E142" s="52"/>
-      <c r="F142" s="52"/>
-      <c r="G142" s="41"/>
+      <c r="A142" s="58"/>
+      <c r="B142" s="47"/>
+      <c r="C142" s="49"/>
+      <c r="D142" s="51"/>
+      <c r="E142" s="53"/>
+      <c r="F142" s="53"/>
+      <c r="G142" s="64"/>
       <c r="H142" s="22" t="s">
         <v>18</v>
       </c>
@@ -10616,13 +10632,13 @@
       </c>
     </row>
     <row r="143" spans="1:16">
-      <c r="A143" s="54"/>
-      <c r="B143" s="46"/>
-      <c r="C143" s="48"/>
-      <c r="D143" s="50"/>
-      <c r="E143" s="52"/>
-      <c r="F143" s="52"/>
-      <c r="G143" s="41"/>
+      <c r="A143" s="58"/>
+      <c r="B143" s="47"/>
+      <c r="C143" s="49"/>
+      <c r="D143" s="51"/>
+      <c r="E143" s="53"/>
+      <c r="F143" s="53"/>
+      <c r="G143" s="64"/>
       <c r="H143" s="22" t="s">
         <v>19</v>
       </c>
@@ -10649,13 +10665,13 @@
       </c>
     </row>
     <row r="144" spans="1:16">
-      <c r="A144" s="54"/>
-      <c r="B144" s="46"/>
-      <c r="C144" s="48"/>
-      <c r="D144" s="50"/>
-      <c r="E144" s="52"/>
-      <c r="F144" s="52"/>
-      <c r="G144" s="41"/>
+      <c r="A144" s="58"/>
+      <c r="B144" s="47"/>
+      <c r="C144" s="49"/>
+      <c r="D144" s="51"/>
+      <c r="E144" s="53"/>
+      <c r="F144" s="53"/>
+      <c r="G144" s="64"/>
       <c r="H144" s="23" t="s">
         <v>20</v>
       </c>
@@ -10682,13 +10698,13 @@
       </c>
     </row>
     <row r="145" spans="1:15" ht="17" thickBot="1">
-      <c r="A145" s="55"/>
-      <c r="B145" s="56"/>
-      <c r="C145" s="57"/>
-      <c r="D145" s="58"/>
-      <c r="E145" s="59"/>
-      <c r="F145" s="59"/>
-      <c r="G145" s="42"/>
+      <c r="A145" s="59"/>
+      <c r="B145" s="60"/>
+      <c r="C145" s="61"/>
+      <c r="D145" s="62"/>
+      <c r="E145" s="56"/>
+      <c r="F145" s="56"/>
+      <c r="G145" s="65"/>
       <c r="H145" s="24" t="s">
         <v>21</v>
       </c>
@@ -10716,6 +10732,83 @@
     </row>
   </sheetData>
   <mergeCells count="101">
+    <mergeCell ref="G137:G145"/>
+    <mergeCell ref="G110:G118"/>
+    <mergeCell ref="B119:B127"/>
+    <mergeCell ref="C119:C127"/>
+    <mergeCell ref="D119:D127"/>
+    <mergeCell ref="E119:E127"/>
+    <mergeCell ref="F119:F127"/>
+    <mergeCell ref="G119:G127"/>
+    <mergeCell ref="G101:G109"/>
+    <mergeCell ref="B101:B109"/>
+    <mergeCell ref="C101:C109"/>
+    <mergeCell ref="D101:D109"/>
+    <mergeCell ref="E101:E109"/>
+    <mergeCell ref="F101:F109"/>
+    <mergeCell ref="B92:B100"/>
+    <mergeCell ref="C92:C100"/>
+    <mergeCell ref="D92:D100"/>
+    <mergeCell ref="E92:E100"/>
+    <mergeCell ref="F92:F100"/>
+    <mergeCell ref="G92:G100"/>
+    <mergeCell ref="A110:A145"/>
+    <mergeCell ref="B110:B118"/>
+    <mergeCell ref="C110:C118"/>
+    <mergeCell ref="D110:D118"/>
+    <mergeCell ref="E110:E118"/>
+    <mergeCell ref="F110:F118"/>
+    <mergeCell ref="B128:B136"/>
+    <mergeCell ref="C128:C136"/>
+    <mergeCell ref="D128:D136"/>
+    <mergeCell ref="E128:E136"/>
+    <mergeCell ref="F128:F136"/>
+    <mergeCell ref="G128:G136"/>
+    <mergeCell ref="B137:B145"/>
+    <mergeCell ref="C137:C145"/>
+    <mergeCell ref="D137:D145"/>
+    <mergeCell ref="E137:E145"/>
+    <mergeCell ref="F137:F145"/>
+    <mergeCell ref="A56:A109"/>
+    <mergeCell ref="G74:G82"/>
+    <mergeCell ref="B83:B91"/>
+    <mergeCell ref="C83:C91"/>
+    <mergeCell ref="D83:D91"/>
+    <mergeCell ref="E83:E91"/>
+    <mergeCell ref="F83:F91"/>
+    <mergeCell ref="G83:G91"/>
+    <mergeCell ref="G56:G64"/>
+    <mergeCell ref="B65:B73"/>
+    <mergeCell ref="C65:C73"/>
+    <mergeCell ref="D65:D73"/>
+    <mergeCell ref="E65:E73"/>
+    <mergeCell ref="F65:F73"/>
+    <mergeCell ref="G65:G73"/>
+    <mergeCell ref="B56:B64"/>
+    <mergeCell ref="C56:C64"/>
+    <mergeCell ref="D56:D64"/>
+    <mergeCell ref="E56:E64"/>
+    <mergeCell ref="F56:F64"/>
+    <mergeCell ref="B74:B82"/>
+    <mergeCell ref="C74:C82"/>
+    <mergeCell ref="D74:D82"/>
+    <mergeCell ref="E74:E82"/>
+    <mergeCell ref="F74:F82"/>
+    <mergeCell ref="D20:D28"/>
+    <mergeCell ref="E20:E28"/>
+    <mergeCell ref="F20:F28"/>
+    <mergeCell ref="B47:B55"/>
+    <mergeCell ref="C47:C55"/>
+    <mergeCell ref="D47:D55"/>
+    <mergeCell ref="E47:E55"/>
+    <mergeCell ref="F47:F55"/>
+    <mergeCell ref="G47:G55"/>
+    <mergeCell ref="B38:B46"/>
+    <mergeCell ref="C38:C46"/>
+    <mergeCell ref="D38:D46"/>
+    <mergeCell ref="E38:E46"/>
+    <mergeCell ref="F38:F46"/>
+    <mergeCell ref="G38:G46"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A2:A55"/>
@@ -10740,83 +10833,6 @@
     <mergeCell ref="G11:G19"/>
     <mergeCell ref="B20:B28"/>
     <mergeCell ref="C20:C28"/>
-    <mergeCell ref="D20:D28"/>
-    <mergeCell ref="E20:E28"/>
-    <mergeCell ref="F20:F28"/>
-    <mergeCell ref="B47:B55"/>
-    <mergeCell ref="C47:C55"/>
-    <mergeCell ref="D47:D55"/>
-    <mergeCell ref="E47:E55"/>
-    <mergeCell ref="F47:F55"/>
-    <mergeCell ref="G47:G55"/>
-    <mergeCell ref="B38:B46"/>
-    <mergeCell ref="C38:C46"/>
-    <mergeCell ref="D38:D46"/>
-    <mergeCell ref="E38:E46"/>
-    <mergeCell ref="F38:F46"/>
-    <mergeCell ref="G38:G46"/>
-    <mergeCell ref="G74:G82"/>
-    <mergeCell ref="B83:B91"/>
-    <mergeCell ref="C83:C91"/>
-    <mergeCell ref="D83:D91"/>
-    <mergeCell ref="E83:E91"/>
-    <mergeCell ref="F83:F91"/>
-    <mergeCell ref="G83:G91"/>
-    <mergeCell ref="G56:G64"/>
-    <mergeCell ref="B65:B73"/>
-    <mergeCell ref="C65:C73"/>
-    <mergeCell ref="D65:D73"/>
-    <mergeCell ref="E65:E73"/>
-    <mergeCell ref="F65:F73"/>
-    <mergeCell ref="G65:G73"/>
-    <mergeCell ref="B56:B64"/>
-    <mergeCell ref="C56:C64"/>
-    <mergeCell ref="D56:D64"/>
-    <mergeCell ref="E56:E64"/>
-    <mergeCell ref="F56:F64"/>
-    <mergeCell ref="B74:B82"/>
-    <mergeCell ref="C74:C82"/>
-    <mergeCell ref="D74:D82"/>
-    <mergeCell ref="E74:E82"/>
-    <mergeCell ref="F74:F82"/>
-    <mergeCell ref="B92:B100"/>
-    <mergeCell ref="C92:C100"/>
-    <mergeCell ref="D92:D100"/>
-    <mergeCell ref="E92:E100"/>
-    <mergeCell ref="F92:F100"/>
-    <mergeCell ref="G92:G100"/>
-    <mergeCell ref="A110:A145"/>
-    <mergeCell ref="B110:B118"/>
-    <mergeCell ref="C110:C118"/>
-    <mergeCell ref="D110:D118"/>
-    <mergeCell ref="E110:E118"/>
-    <mergeCell ref="F110:F118"/>
-    <mergeCell ref="B128:B136"/>
-    <mergeCell ref="C128:C136"/>
-    <mergeCell ref="D128:D136"/>
-    <mergeCell ref="E128:E136"/>
-    <mergeCell ref="F128:F136"/>
-    <mergeCell ref="G128:G136"/>
-    <mergeCell ref="B137:B145"/>
-    <mergeCell ref="C137:C145"/>
-    <mergeCell ref="D137:D145"/>
-    <mergeCell ref="E137:E145"/>
-    <mergeCell ref="F137:F145"/>
-    <mergeCell ref="A56:A109"/>
-    <mergeCell ref="G137:G145"/>
-    <mergeCell ref="G110:G118"/>
-    <mergeCell ref="B119:B127"/>
-    <mergeCell ref="C119:C127"/>
-    <mergeCell ref="D119:D127"/>
-    <mergeCell ref="E119:E127"/>
-    <mergeCell ref="F119:F127"/>
-    <mergeCell ref="G119:G127"/>
-    <mergeCell ref="G101:G109"/>
-    <mergeCell ref="B101:B109"/>
-    <mergeCell ref="C101:C109"/>
-    <mergeCell ref="D101:D109"/>
-    <mergeCell ref="E101:E109"/>
-    <mergeCell ref="F101:F109"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17333,13 +17349,15 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:C33"/>
+    <sheetView topLeftCell="F1" zoomScale="110" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="9" width="9" style="28"/>
+    <col min="1" max="5" width="9" style="28"/>
+    <col min="6" max="6" width="26.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9" style="28"/>
     <col min="10" max="10" width="35.6640625" style="28" customWidth="1"/>
     <col min="11" max="12" width="9" style="28"/>
     <col min="13" max="13" width="51" style="28" customWidth="1"/>
@@ -28929,8 +28947,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:C33"/>
+    <sheetView topLeftCell="H3" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -33681,8 +33699,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:C33"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -34219,8 +34237,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:C33"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -34759,8 +34777,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -35301,8 +35319,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
